--- a/medicine/Enfance/Claudine_Galea/Claudine_Galea.xlsx
+++ b/medicine/Enfance/Claudine_Galea/Claudine_Galea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claudine Galea, née le 9 février 1960 à Marseille, est une écrivaine française[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claudine Galea, née le 9 février 1960 à Marseille, est une écrivaine française.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Native de Marseille, Claudine Galea fait du théâtre puis devient journaliste pour le journal La Marseillaise[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Native de Marseille, Claudine Galea fait du théâtre puis devient journaliste pour le journal La Marseillaise.
 Claudine Galea écrit des romans, des pièces de théâtre, des livres pour enfants et des textes radiophoniques.
 Elle est artiste associée au Théâtre national de Strasbourg depuis 2015 et au Théâtre Nanterre-Amandiers depuis 2021.
-Ses textes ont été mis en scène par Stanislas Nordey (Au bord, 2021, sur le scandale d'Abou Ghraib)[3], Benoît Bradel (Au bois, 2018, revisitant le conte Le Petit Chaperon rouge)[4], Antoine Hespel (Toutes leurs robes noires, 2021)[5], Jean-Michel Rabeux (Un sentiment de vie, 2021, Au Bord 2013)[6], Émilie Charriot (Un sentiment de vie, 2021, Theater Basel et Un sentiment de vie, Théâtre National de Strasbourg, 2023).
-En 2021, sa pièce Je reviens de loin est adaptée au cinéma par Mathieu Amalric sous le titre Serre moi fort[7],[8].
+Ses textes ont été mis en scène par Stanislas Nordey (Au bord, 2021, sur le scandale d'Abou Ghraib), Benoît Bradel (Au bois, 2018, revisitant le conte Le Petit Chaperon rouge), Antoine Hespel (Toutes leurs robes noires, 2021), Jean-Michel Rabeux (Un sentiment de vie, 2021, Au Bord 2013), Émilie Charriot (Un sentiment de vie, 2021, Theater Basel et Un sentiment de vie, Théâtre National de Strasbourg, 2023).
+En 2021, sa pièce Je reviens de loin est adaptée au cinéma par Mathieu Amalric sous le titre Serre moi fort,.
 </t>
         </is>
       </c>
@@ -548,36 +562,143 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Théâtre
-Je reviens de loin, Éditions Espaces 34, 2003
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Je reviens de loin, Éditions Espaces 34, 2003
 Les Idiots, Éditions Espaces 34, 2004
 Les Chants du silence rouge, Éditions Espaces 34, 2008
-Au Bord, Éditions Espaces 34, 2010[9]
+Au Bord, Éditions Espaces 34, 2010
 L'été où le ciel s'est renversé, Éditions Espaces 34, 2012
 Les Invisibles, Éditions Espaces 34, 2014
 Au Bois, Éditions Espaces 34, 2015
-Que seul un chien &amp; Alliance, Éditions Espaces 34, 2016[10]
+Que seul un chien &amp; Alliance, Éditions Espaces 34, 2016
 Blanche-Neige Foutue Forêt, Éditions Espaces 34, 2018
-Fake, Éditions Espaces 34, 2019[11]
+Fake, Éditions Espaces 34, 2019
 Un sentiment de vie, Éditions Espaces 34, collection Hors Cadre, 2021
 Ça ne passe pas , Éditions Espaces 34, 2022
-MADAM, Manuel d'auto-défence à méditer, collection "Écriture de spectacle", Deuxième époque, 2023
-Théâtre jeunesse
-L'heure blanche &amp; Toutes leurs robes noires, Éditions Espaces 34, 2009
+MADAM, Manuel d'auto-défence à méditer, collection "Écriture de spectacle", Deuxième époque, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Claudine_Galea</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claudine_Galea</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Théâtre jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'heure blanche &amp; Toutes leurs robes noires, Éditions Espaces 34, 2009
 La Nuit Même Pas Peur &amp; Petite Poucet, Éditions Espaces 34, 2009
 Après grand c’est comment ?, Éditions Espaces 34, 2015
-Noircisse, Éditions Espaces 34, 2018
-Récits, Romans
-Chronique d’une navigation, Images en Manoeuvre éditions, 1996
+Noircisse, Éditions Espaces 34, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Claudine_Galea</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claudine_Galea</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Récits, Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Chronique d’une navigation, Images en Manoeuvre éditions, 1996
 Jusqu’aux os, éditions du Rouergue, 2003
 Le bel échange, éditions du Rouergue, 2005
 Morphoses, avec des images de Goele Dewanckel, éditions du Rouergue, 2006
 L’Amour d’une femme, éditions du Seuil, 2007
 La Règle du changement, éditions de l’Amourier, 2007
 Le corps plein d’un rêve, La Brune au Rouergue, 2011
-Les choses comme elles sont, Editions Verticales, 2019[12]
-Albums et textes jeunesse
-Sans toi, illustrations Goele Dewanckel, éditions du Rouergue, 2005
+Les choses comme elles sont, Editions Verticales, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Claudine_Galea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claudine_Galea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Albums et textes jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sans toi, illustrations Goele Dewanckel, éditions du Rouergue, 2005
 MêmePasPeur, illustrations Marjorie Pourchet, éditions du Rouergue, 2005
 Entre les vagues, coll. DoAdo, éditions du Rouergue, 2006
 Rouge Métro, collection DoAdo noir, éditions du Rouergue, 2007
@@ -585,46 +706,150 @@
 Un amour prodigue, Thierry Magnier, 2009 (pour ados et adultes)
 Au pays de Titus, illustrations Goele Dewanckel, éditions du Rouergue, 2008
 Le garçon au chien parlant ; La fille qui parle à la mer, éditions du Rouergue, 2013
-Tu t’appelles qui ?, Thierry Magnier, album avec des illustrations de Françoise Pétrovitch, 2016
-Textes radiophoniques
-Le corps plein d'un rêve - Sept vies de Patti Smith, 2008, France culture[13],[14]
-Ouvrage collectif
-Les Fantaisies microcosmiques, avec Christophe Barbier, Claudie Decultis, Philippe Fenwick, Franz-Olivier Giesbert, Victor Haïm, Stanislas Kemper, Maxime Lombard, Murielle Magellan, Amélie Nothomb, René de Obaldia, Érik Orsenna, Dominique Paquet, Jean-Yves Picq, Emmanuelle Polle, Fabienne Rouby, Karin Serres, Gonzague Saint Bris, Marie-Claude Tesson-Millet, Sylvain Tesson, Sébastien Thiéry et Florian Zeller, L'Avant-Scène Théâtre, collection Des Quatre Vents, 2004.
-Traduction
-La Ronde du carré de Dimítris Dimitriádis avec Dimitra Kondylaki, Editions Les Solitaires Intempestifs</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Claudine_Galea</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Claudine_Galea</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Tu t’appelles qui ?, Thierry Magnier, album avec des illustrations de Françoise Pétrovitch, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Claudine_Galea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claudine_Galea</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Textes radiophoniques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le corps plein d'un rêve - Sept vies de Patti Smith, 2008, France culture,</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Claudine_Galea</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claudine_Galea</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ouvrage collectif</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Les Fantaisies microcosmiques, avec Christophe Barbier, Claudie Decultis, Philippe Fenwick, Franz-Olivier Giesbert, Victor Haïm, Stanislas Kemper, Maxime Lombard, Murielle Magellan, Amélie Nothomb, René de Obaldia, Érik Orsenna, Dominique Paquet, Jean-Yves Picq, Emmanuelle Polle, Fabienne Rouby, Karin Serres, Gonzague Saint Bris, Marie-Claude Tesson-Millet, Sylvain Tesson, Sébastien Thiéry et Florian Zeller, L'Avant-Scène Théâtre, collection Des Quatre Vents, 2004.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Claudine_Galea</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claudine_Galea</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Traduction</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>La Ronde du carré de Dimítris Dimitriádis avec Dimitra Kondylaki, Editions Les Solitaires Intempestifs</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Claudine_Galea</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Claudine_Galea</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Prix Radio SACD 2009 pour l'ensemble de son travail radiophonique[réf. nécessaire]
 Grand prix de littérature dramatique  2011 pour Au Bord
-Prix des lycéens allemands 2009 pour Rouge métro[15]
-Grand prix de littérature dramatique jeunesse 2019 pour Noircisse[16]
+Prix des lycéens allemands 2009 pour Rouge métro
+Grand prix de littérature dramatique jeunesse 2019 pour Noircisse
 Prix des lycéens Ile de France 2011 pour Le corps plein d'un rêve[réf. nécessaire]</t>
         </is>
       </c>
